--- a/Private/Nhân/2. Artifact and Deliverable/Requirement/PM_Progress_Ver1.1.xlsx
+++ b/Private/Nhân/2. Artifact and Deliverable/Requirement/PM_Progress_Ver1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Private\Nhân\2. Artifact and Deliverable\Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56E2ABD-892F-409C-B41E-3B5F54FBBEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FCF103-800E-470C-8F81-D74EAA490C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>Quản lý thống kê, báo cáo</t>
   </si>
@@ -361,15 +361,6 @@
     <t>Overall description</t>
   </si>
   <si>
-    <t>Product Perspective</t>
-  </si>
-  <si>
-    <t>Deliverable</t>
-  </si>
-  <si>
-    <t>Purpose and Scope</t>
-  </si>
-  <si>
     <t>External Interface Requirements</t>
   </si>
   <si>
@@ -421,9 +412,6 @@
     <t>SRS.doc</t>
   </si>
   <si>
-    <t>Doing (Update context digram)</t>
-  </si>
-  <si>
     <t>Do not (prototypes)</t>
   </si>
   <si>
@@ -461,6 +449,24 @@
   </si>
   <si>
     <t>All of team</t>
+  </si>
+  <si>
+    <t>Feature Perspective</t>
+  </si>
+  <si>
+    <t>Function Perspective</t>
+  </si>
+  <si>
+    <t>User Groups and Characteristics</t>
+  </si>
+  <si>
+    <t>Operating Environment</t>
+  </si>
+  <si>
+    <t>Design and Implementation Constraints</t>
+  </si>
+  <si>
+    <t>Assumptions and Dependencies</t>
   </si>
 </sst>
 </file>
@@ -825,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -952,6 +958,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,7 +1025,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1330,20 +1342,20 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1361,11 +1373,11 @@
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="7"/>
@@ -1377,11 +1389,11 @@
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
@@ -1391,11 +1403,11 @@
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="7"/>
@@ -1405,11 +1417,11 @@
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="G6" s="7"/>
@@ -1419,11 +1431,11 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="7"/>
       <c r="F7" s="2"/>
       <c r="G7" s="7"/>
@@ -1433,11 +1445,11 @@
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="7"/>
       <c r="F8" s="2"/>
       <c r="G8" s="7"/>
@@ -1447,11 +1459,11 @@
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="7"/>
       <c r="F9" s="2"/>
       <c r="G9" s="7"/>
@@ -1461,11 +1473,11 @@
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="7"/>
       <c r="F10" s="2"/>
       <c r="G10" s="7"/>
@@ -1475,11 +1487,11 @@
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
@@ -1489,11 +1501,11 @@
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="7"/>
@@ -1503,11 +1515,11 @@
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="7"/>
@@ -1517,11 +1529,11 @@
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1531,11 +1543,11 @@
       <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1545,11 +1557,11 @@
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1559,11 +1571,11 @@
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1573,11 +1585,11 @@
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1587,11 +1599,11 @@
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1601,11 +1613,11 @@
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1615,11 +1627,11 @@
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1629,11 +1641,11 @@
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1643,11 +1655,11 @@
       <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1657,31 +1669,31 @@
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1699,11 +1711,11 @@
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2"/>
@@ -1715,11 +1727,11 @@
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1729,11 +1741,11 @@
       <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1743,32 +1755,32 @@
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
@@ -1786,11 +1798,11 @@
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="67" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="7"/>
@@ -1802,11 +1814,11 @@
       <c r="A34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="7"/>
       <c r="F34" s="2"/>
       <c r="G34" s="7"/>
@@ -1816,11 +1828,11 @@
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="7"/>
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
@@ -1830,11 +1842,11 @@
       <c r="A36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1844,32 +1856,32 @@
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="52"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="3" t="s">
         <v>11</v>
       </c>
@@ -1887,11 +1899,11 @@
       <c r="A40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="53" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="7"/>
@@ -1903,11 +1915,11 @@
       <c r="A41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="7"/>
       <c r="F41" s="2"/>
       <c r="G41" s="7"/>
@@ -1917,11 +1929,11 @@
       <c r="A42" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="7"/>
       <c r="F42" s="2"/>
       <c r="G42" s="7"/>
@@ -1931,11 +1943,11 @@
       <c r="A43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="7"/>
       <c r="F43" s="2"/>
       <c r="G43" s="7"/>
@@ -1945,11 +1957,11 @@
       <c r="A44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="7"/>
       <c r="F44" s="2"/>
       <c r="G44" s="7"/>
@@ -1959,11 +1971,11 @@
       <c r="A45" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="52"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="7"/>
       <c r="F45" s="2"/>
       <c r="G45" s="7"/>
@@ -1973,11 +1985,11 @@
       <c r="A46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1987,32 +1999,32 @@
       <c r="A47" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="52"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2030,11 +2042,11 @@
       <c r="A50" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="51"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="2"/>
@@ -2046,11 +2058,11 @@
       <c r="A51" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="59"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2060,11 +2072,11 @@
       <c r="A52" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="59"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2074,32 +2086,32 @@
       <c r="A53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="59"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="3" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2129,7 @@
       <c r="A56" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="1" t="s">
         <v>102</v>
       </c>
@@ -2176,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6430B6-8AA6-45D8-B4DF-8F66C42FAFA7}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,16 +2208,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,13 +2238,13 @@
         <v>105</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,13 +2255,13 @@
         <v>106</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,13 +2272,13 @@
         <v>107</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,16 +2300,16 @@
         <v>2.1</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,16 +2317,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,16 +2334,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,16 +2351,16 @@
         <v>2.4</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,16 +2368,16 @@
         <v>2.5</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -2387,16 +2399,16 @@
         <v>3.1</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,14 +2416,14 @@
         <v>3.2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,14 +2431,14 @@
         <v>3.3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,14 +2446,14 @@
         <v>3.4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,16 +2465,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2474,77 +2486,109 @@
         <v>5</v>
       </c>
       <c r="B22" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>6</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
+        <v>6.1</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
+        <v>6.2</v>
+      </c>
+      <c r="B28" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>6</v>
-      </c>
-      <c r="B24" s="44" t="s">
+      <c r="C28" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
+        <v>7</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
-        <v>6.1</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
-        <v>6.2</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
-        <v>7</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="C30" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
         <v>137</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
